--- a/Current Build/Output/Test_Output_Clinically_Relevant_Cases.xlsx
+++ b/Current Build/Output/Test_Output_Clinically_Relevant_Cases.xlsx
@@ -880,7 +880,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSU334193</t>
+          <t>TST334193</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSU334193</t>
+          <t>TST334193</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1808,7 +1808,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSU332586</t>
+          <t>TST332586</t>
         </is>
       </c>
       <c r="B2" s="2">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSU332586</t>
+          <t>TST332586</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2162,7 +2162,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSU321720-1</t>
+          <t>TST321720-1</t>
         </is>
       </c>
       <c r="B3" s="2">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CSU321720-1</t>
+          <t>TST321720-1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CSU331933</t>
+          <t>TST331933</t>
         </is>
       </c>
       <c r="B4" s="2">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSU331933</t>
+          <t>TST331933</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2890,7 +2890,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CSU292064</t>
+          <t>TST292064</t>
         </is>
       </c>
       <c r="B5" s="2">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSU292064</t>
+          <t>TST292064</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3229,7 +3229,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CSU335757</t>
+          <t>TST335757</t>
         </is>
       </c>
       <c r="B6" s="2">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSU335757</t>
+          <t>TST335757</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3603,7 +3603,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CSU336117</t>
+          <t>TST336117</t>
         </is>
       </c>
       <c r="B7" s="2">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSU336117</t>
+          <t>TST336117</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3957,7 +3957,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CSU305590</t>
+          <t>TST305590</t>
         </is>
       </c>
       <c r="B8" s="2">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CSU305590</t>
+          <t>TST305590</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4291,7 +4291,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CSU329245</t>
+          <t>TST329245</t>
         </is>
       </c>
       <c r="B9" s="2">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CSU329245</t>
+          <t>TST329245</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4625,7 +4625,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CSU337467</t>
+          <t>TST337467</t>
         </is>
       </c>
       <c r="B10" s="2">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CSU337467</t>
+          <t>TST337467</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4974,7 +4974,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSU337858</t>
+          <t>TST337858</t>
         </is>
       </c>
       <c r="B11" s="2">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CSU337858</t>
+          <t>TST337858</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -5333,7 +5333,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSU329638</t>
+          <t>TST329638</t>
         </is>
       </c>
       <c r="B12" s="2">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CSU329638</t>
+          <t>TST329638</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -5667,7 +5667,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSU338328</t>
+          <t>TST338328</t>
         </is>
       </c>
       <c r="B13" s="2">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CSU338328</t>
+          <t>TST338328</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -6011,7 +6011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CSU338698</t>
+          <t>TST338698</t>
         </is>
       </c>
       <c r="B14" s="2">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CSU338698</t>
+          <t>TST338698</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CSU338729</t>
+          <t>TST338729</t>
         </is>
       </c>
       <c r="B15" s="2">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CSU338729</t>
+          <t>TST338729</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -6784,7 +6784,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CSU339186</t>
+          <t>TST339186</t>
         </is>
       </c>
       <c r="B16" s="2">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CSU339186</t>
+          <t>TST339186</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -7158,7 +7158,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSU339706</t>
+          <t>TST339706</t>
         </is>
       </c>
       <c r="B17" s="2">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CSU339706</t>
+          <t>TST339706</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -7502,7 +7502,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CSU340242</t>
+          <t>TST340242</t>
         </is>
       </c>
       <c r="B18" s="2">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CSU340242</t>
+          <t>TST340242</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -7836,7 +7836,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSU339968</t>
+          <t>TST339968</t>
         </is>
       </c>
       <c r="B19" s="2">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CSU339968</t>
+          <t>TST339968</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -8180,7 +8180,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSU340682</t>
+          <t>TST340682</t>
         </is>
       </c>
       <c r="B20" s="2">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CSU340682</t>
+          <t>TST340682</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -8524,7 +8524,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSU341404</t>
+          <t>TST341404</t>
         </is>
       </c>
       <c r="B21" s="2">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CSU341404</t>
+          <t>TST341404</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -8898,7 +8898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSU344085</t>
+          <t>TST344085</t>
         </is>
       </c>
       <c r="B22" s="2">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CSU344085</t>
+          <t>TST344085</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -9262,7 +9262,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSU345316</t>
+          <t>TST345316</t>
         </is>
       </c>
       <c r="B23" s="2">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CSU345316</t>
+          <t>TST345316</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -9613,7 +9613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>345558</t>
+          <t>TST345558</t>
         </is>
       </c>
       <c r="B24" s="2">
@@ -9629,7 +9629,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>345558</t>
+          <t>TST345558</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -9957,7 +9957,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CSU346045</t>
+          <t>TST346045</t>
         </is>
       </c>
       <c r="B25" s="2">
@@ -9973,7 +9973,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CSU346045</t>
+          <t>TST346045</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -10331,7 +10331,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CSU346106</t>
+          <t>TST346106</t>
         </is>
       </c>
       <c r="B26" s="2">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CSU346106</t>
+          <t>TST346106</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -10675,7 +10675,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CSU265659</t>
+          <t>TST265659</t>
         </is>
       </c>
       <c r="B27" s="2">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CSU265659</t>
+          <t>TST265659</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -11014,7 +11014,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>347268</t>
+          <t>TST347268</t>
         </is>
       </c>
       <c r="B28" s="2">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>347268</t>
+          <t>TST347268</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -11388,7 +11388,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CSU325897</t>
+          <t>TST325897</t>
         </is>
       </c>
       <c r="B29" s="2">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CSU325897</t>
+          <t>TST325897</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -11727,7 +11727,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CSU349608</t>
+          <t>TST349608</t>
         </is>
       </c>
       <c r="B30" s="2">
@@ -11743,7 +11743,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CSU349608</t>
+          <t>TST349608</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -12076,7 +12076,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CSU349610</t>
+          <t>TST349610</t>
         </is>
       </c>
       <c r="B31" s="2">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CSU349610</t>
+          <t>TST349610</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -12435,7 +12435,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>349664</t>
+          <t>TST349664</t>
         </is>
       </c>
       <c r="B32" s="2">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>349664</t>
+          <t>TST349664</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -12779,7 +12779,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CSU350106</t>
+          <t>TST350106</t>
         </is>
       </c>
       <c r="B33" s="2">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CSU350106</t>
+          <t>TST350106</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -13113,7 +13113,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>334632</t>
+          <t>TST334632</t>
         </is>
       </c>
       <c r="B34" s="2">
@@ -13129,7 +13129,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>334632</t>
+          <t>TST334632</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -13467,7 +13467,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>350129</t>
+          <t>TST350129</t>
         </is>
       </c>
       <c r="B35" s="2">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>350129</t>
+          <t>TST350129</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -13806,7 +13806,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>350183</t>
+          <t>TST350183</t>
         </is>
       </c>
       <c r="B36" s="2">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>350183</t>
+          <t>TST350183</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -14185,7 +14185,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>350279</t>
+          <t>TST350279</t>
         </is>
       </c>
       <c r="B37" s="2">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>350279</t>
+          <t>TST350279</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -14554,7 +14554,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CSU350608</t>
+          <t>TST350608</t>
         </is>
       </c>
       <c r="B38" s="2">
@@ -14570,7 +14570,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CSU350608</t>
+          <t>TST350608</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -14903,7 +14903,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CSU350651</t>
+          <t>TST350651</t>
         </is>
       </c>
       <c r="B39" s="2">
@@ -14919,7 +14919,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CSU350651</t>
+          <t>TST350651</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -15254,7 +15254,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>350814</t>
+          <t>TST350814</t>
         </is>
       </c>
       <c r="B40" s="2">
@@ -15270,7 +15270,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>350814</t>
+          <t>TST350814</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -15628,7 +15628,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>350873</t>
+          <t>TST350873</t>
         </is>
       </c>
       <c r="B41" s="2">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>350873</t>
+          <t>TST350873</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -15964,7 +15964,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>351114</t>
+          <t>TST351114</t>
         </is>
       </c>
       <c r="B42" s="2">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>351114</t>
+          <t>TST351114</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -16313,7 +16313,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CSU352215</t>
+          <t>TST352215</t>
         </is>
       </c>
       <c r="B43" s="2">
@@ -16329,7 +16329,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CSU352215</t>
+          <t>TST352215</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -16647,7 +16647,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>352683</t>
+          <t>TST352683</t>
         </is>
       </c>
       <c r="B44" s="2">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>352683</t>
+          <t>TST352683</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -16986,7 +16986,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>352919</t>
+          <t>TST352919</t>
         </is>
       </c>
       <c r="B45" s="2">
@@ -17002,7 +17002,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>352919</t>
+          <t>TST352919</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -17345,7 +17345,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>354412</t>
+          <t>TST354412</t>
         </is>
       </c>
       <c r="B46" s="2">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>354412</t>
+          <t>TST354412</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -17689,7 +17689,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>354652</t>
+          <t>TST354652</t>
         </is>
       </c>
       <c r="B47" s="2">
@@ -17705,7 +17705,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>354652</t>
+          <t>TST354652</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -18038,7 +18038,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CSU341608</t>
+          <t>TST341608</t>
         </is>
       </c>
       <c r="B48" s="2">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CSU341608</t>
+          <t>TST341608</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -18382,7 +18382,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="B49" s="2">
@@ -18398,7 +18398,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -18766,7 +18766,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CSU338924</t>
+          <t>TST338924</t>
         </is>
       </c>
       <c r="B50" s="2">
@@ -18782,7 +18782,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CSU338924</t>
+          <t>TST338924</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -19140,7 +19140,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CSU338961</t>
+          <t>TST338961</t>
         </is>
       </c>
       <c r="B51" s="2">
@@ -19156,7 +19156,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CSU338961</t>
+          <t>TST338961</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -19509,7 +19509,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CSU339753</t>
+          <t>TST339753</t>
         </is>
       </c>
       <c r="B52" s="2">
@@ -19525,7 +19525,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CSU339753</t>
+          <t>TST339753</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -19883,7 +19883,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CSU340306</t>
+          <t>TST340306</t>
         </is>
       </c>
       <c r="B53" s="2">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CSU340306</t>
+          <t>TST340306</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -20262,7 +20262,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CSU340641</t>
+          <t>TST340641</t>
         </is>
       </c>
       <c r="B54" s="2">
@@ -20278,7 +20278,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CSU340641</t>
+          <t>TST340641</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -20646,7 +20646,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CSU341619</t>
+          <t>TST341619</t>
         </is>
       </c>
       <c r="B55" s="2">
@@ -20662,7 +20662,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CSU341619</t>
+          <t>TST341619</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -21035,7 +21035,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CSU342653</t>
+          <t>TST342653</t>
         </is>
       </c>
       <c r="B56" s="2">
@@ -21051,7 +21051,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CSU342653</t>
+          <t>TST342653</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -21409,7 +21409,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CSU331743</t>
+          <t>TST331743</t>
         </is>
       </c>
       <c r="B57" s="2">
@@ -21425,7 +21425,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CSU331743</t>
+          <t>TST331743</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -21783,7 +21783,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CSU346074</t>
+          <t>TST346074</t>
         </is>
       </c>
       <c r="B58" s="2">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CSU346074</t>
+          <t>TST346074</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -22172,7 +22172,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>346786</t>
+          <t>TST346786</t>
         </is>
       </c>
       <c r="B59" s="2">
@@ -22188,7 +22188,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>346786</t>
+          <t>TST346786</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -22571,7 +22571,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>347340</t>
+          <t>TST347340</t>
         </is>
       </c>
       <c r="B60" s="2">
@@ -22587,7 +22587,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>347340</t>
+          <t>TST347340</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -22945,7 +22945,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CSU348049</t>
+          <t>TST348049</t>
         </is>
       </c>
       <c r="B61" s="2">
@@ -22961,7 +22961,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>348049</t>
+          <t>TST348049</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -23344,7 +23344,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CSU352774</t>
+          <t>TST352774</t>
         </is>
       </c>
       <c r="B62" s="2">
@@ -23360,7 +23360,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CSU352774</t>
+          <t>TST352774</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -23710,7 +23710,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CSU349130</t>
+          <t>TST349130</t>
         </is>
       </c>
       <c r="B63" s="2">
@@ -23726,7 +23726,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CSU349130</t>
+          <t>TST349130</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -24079,7 +24079,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CSU349190</t>
+          <t>TST349190</t>
         </is>
       </c>
       <c r="B64" s="2">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CSU349190</t>
+          <t>TST349190</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>349315</t>
+          <t>TST349315</t>
         </is>
       </c>
       <c r="B65" s="2">
@@ -24479,7 +24479,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>349315</t>
+          <t>TST349315</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -24837,7 +24837,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>349548</t>
+          <t>TST349548</t>
         </is>
       </c>
       <c r="B66" s="2">
@@ -24853,7 +24853,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>349548</t>
+          <t>TST349548</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -25211,7 +25211,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CSU350865</t>
+          <t>TST350865</t>
         </is>
       </c>
       <c r="B67" s="2">
@@ -25227,7 +25227,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CSU350865</t>
+          <t>TST350865</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -25575,7 +25575,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>246954</t>
+          <t>TST246954</t>
         </is>
       </c>
       <c r="B68" s="2">
@@ -25591,7 +25591,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>43407</t>
+          <t>TST43407</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -25956,7 +25956,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>353522</t>
+          <t>TST353522</t>
         </is>
       </c>
       <c r="B69" s="2">
@@ -25972,7 +25972,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>353522</t>
+          <t>TST353522</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -26340,7 +26340,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>354510</t>
+          <t>TST354510</t>
         </is>
       </c>
       <c r="B70" s="2">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>354510</t>
+          <t>TST354510</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -26729,7 +26729,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>354896</t>
+          <t>TST354896</t>
         </is>
       </c>
       <c r="B71" s="2">
@@ -26745,7 +26745,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>354896</t>
+          <t>TST354896</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -27108,7 +27108,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CSU345134</t>
+          <t>TST345134</t>
         </is>
       </c>
       <c r="B72" s="2">
@@ -27124,7 +27124,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CSU345134</t>
+          <t>TST345134</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -27472,7 +27472,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CSU318199</t>
+          <t>TST318199</t>
         </is>
       </c>
       <c r="B73" s="2">
@@ -27488,7 +27488,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CSU318199</t>
+          <t>TST318199</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -27831,7 +27831,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CSU332328</t>
+          <t>TST332328</t>
         </is>
       </c>
       <c r="B74" s="2">
@@ -27847,7 +27847,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CSU332328</t>
+          <t>TST332328</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -28220,7 +28220,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CSU332368</t>
+          <t>TST332368</t>
         </is>
       </c>
       <c r="B75" s="2">
@@ -28236,7 +28236,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CSU332368</t>
+          <t>TST332368</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -28559,7 +28559,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CSU332557</t>
+          <t>TST332557</t>
         </is>
       </c>
       <c r="B76" s="2">
@@ -28575,7 +28575,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CSU332557</t>
+          <t>TST332557</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -28903,7 +28903,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CSU322846</t>
+          <t>TST322846</t>
         </is>
       </c>
       <c r="B77" s="2">
@@ -28919,7 +28919,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CSU322846</t>
+          <t>TST322846</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -29237,7 +29237,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CSU332586</t>
+          <t>TST332586</t>
         </is>
       </c>
       <c r="B78" s="2">
@@ -29253,7 +29253,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CSU332586</t>
+          <t>TST332586</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -29591,7 +29591,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CSU332749</t>
+          <t>TST332749</t>
         </is>
       </c>
       <c r="B79" s="2">
@@ -29607,7 +29607,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CSU332749</t>
+          <t>TST332749</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -29960,7 +29960,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CSU332914</t>
+          <t>TST332914</t>
         </is>
       </c>
       <c r="B80" s="2">
@@ -29976,7 +29976,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CSU332914</t>
+          <t>TST332914</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -30324,7 +30324,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CSU299882</t>
+          <t>TST299882</t>
         </is>
       </c>
       <c r="B81" s="2">
@@ -30340,7 +30340,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CSU299882</t>
+          <t>TST299882</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -30658,7 +30658,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CSU333038</t>
+          <t>TST333038</t>
         </is>
       </c>
       <c r="B82" s="2">
@@ -30674,7 +30674,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CSU333038</t>
+          <t>TST333038</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -31012,7 +31012,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CSU333056</t>
+          <t>TST333056</t>
         </is>
       </c>
       <c r="B83" s="2">
@@ -31028,7 +31028,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CSU333056</t>
+          <t>TST333056</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -31356,7 +31356,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CSU333061</t>
+          <t>TST333061</t>
         </is>
       </c>
       <c r="B84" s="2">
@@ -31372,7 +31372,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CSU333061</t>
+          <t>TST333061</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -31695,7 +31695,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CSU333240</t>
+          <t>TST333240</t>
         </is>
       </c>
       <c r="B85" s="2">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CSU333240</t>
+          <t>TST333240</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -32034,7 +32034,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CSU322283</t>
+          <t>TST322283</t>
         </is>
       </c>
       <c r="B86" s="2">
@@ -32050,7 +32050,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CSU322283</t>
+          <t>TST322283</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -32365,7 +32365,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CSU310049</t>
+          <t>TST310049</t>
         </is>
       </c>
       <c r="B87" s="2">
@@ -32381,7 +32381,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CSU310049</t>
+          <t>TST310049</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -32701,7 +32701,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CSU321720-1</t>
+          <t>TST321720-1</t>
         </is>
       </c>
       <c r="B88" s="2">
@@ -32717,7 +32717,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CSU321720-1</t>
+          <t>TST321720-1</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -33065,7 +33065,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CSU333502</t>
+          <t>TST333502</t>
         </is>
       </c>
       <c r="B89" s="2">
@@ -33081,7 +33081,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CSU333502</t>
+          <t>TST333502</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -33414,7 +33414,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CSU331933</t>
+          <t>TST331933</t>
         </is>
       </c>
       <c r="B90" s="2">
@@ -33430,7 +33430,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CSU331933</t>
+          <t>TST331933</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -33778,7 +33778,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CSU291190</t>
+          <t>TST291190</t>
         </is>
       </c>
       <c r="B91" s="2">
@@ -33794,7 +33794,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CSU291190</t>
+          <t>TST291190</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -34112,7 +34112,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CSU333708</t>
+          <t>TST333708</t>
         </is>
       </c>
       <c r="B92" s="2">
@@ -34128,7 +34128,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CSU333708</t>
+          <t>TST333708</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -34451,7 +34451,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CSU333720</t>
+          <t>TST333720</t>
         </is>
       </c>
       <c r="B93" s="2">
@@ -34467,7 +34467,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CSU333720</t>
+          <t>TST333720</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -34790,7 +34790,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CSU292064</t>
+          <t>TST292064</t>
         </is>
       </c>
       <c r="B94" s="2">
@@ -34806,7 +34806,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CSU292064</t>
+          <t>TST292064</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -35129,7 +35129,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CSU333921</t>
+          <t>TST333921</t>
         </is>
       </c>
       <c r="B95" s="2">
@@ -35145,7 +35145,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CSU333921</t>
+          <t>TST333921</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -35463,7 +35463,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CSU334193</t>
+          <t>TST334193</t>
         </is>
       </c>
       <c r="B96" s="2">
@@ -35479,7 +35479,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CSU334193</t>
+          <t>TST334193</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -35852,7 +35852,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CSU324421</t>
+          <t>TST324421</t>
         </is>
       </c>
       <c r="B97" s="2">
@@ -35868,7 +35868,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CSU324421</t>
+          <t>TST324421</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -36191,7 +36191,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CSU334465</t>
+          <t>TST334465</t>
         </is>
       </c>
       <c r="B98" s="2">
@@ -36207,7 +36207,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CSU334465</t>
+          <t>TST334465</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -36525,7 +36525,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CSU334474</t>
+          <t>TST334474</t>
         </is>
       </c>
       <c r="B99" s="2">
@@ -36541,7 +36541,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CSU334474</t>
+          <t>TST334474</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -36864,7 +36864,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CSU334483</t>
+          <t>TST334483</t>
         </is>
       </c>
       <c r="B100" s="2">
@@ -36880,7 +36880,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CSU334483</t>
+          <t>TST334483</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -37208,7 +37208,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CSU334484</t>
+          <t>TST334484</t>
         </is>
       </c>
       <c r="B101" s="2">
@@ -37224,7 +37224,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CSU334484</t>
+          <t>TST334484</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -37539,7 +37539,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CSU301527</t>
+          <t>TST301527</t>
         </is>
       </c>
       <c r="B102" s="2">
@@ -37555,7 +37555,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CSU301527</t>
+          <t>TST301527</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -37878,7 +37878,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CSU334596</t>
+          <t>TST334596</t>
         </is>
       </c>
       <c r="B103" s="2">
@@ -37894,7 +37894,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CSU334596</t>
+          <t>TST334596</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -38232,7 +38232,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CSU334616</t>
+          <t>TST334616</t>
         </is>
       </c>
       <c r="B104" s="2">
@@ -38248,7 +38248,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CSU334616</t>
+          <t>TST334616</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -38576,7 +38576,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CSU323835</t>
+          <t>TST323835</t>
         </is>
       </c>
       <c r="B105" s="2">
@@ -38592,7 +38592,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CSU323835</t>
+          <t>TST323835</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -38945,7 +38945,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CSU334688</t>
+          <t>TST334688</t>
         </is>
       </c>
       <c r="B106" s="2">
@@ -38961,7 +38961,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CSU334688</t>
+          <t>TST334688</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -39299,7 +39299,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CSU334766</t>
+          <t>TST334766</t>
         </is>
       </c>
       <c r="B107" s="2">
@@ -39315,7 +39315,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CSU334766</t>
+          <t>TST334766</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -39658,7 +39658,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CSU334768</t>
+          <t>TST334768</t>
         </is>
       </c>
       <c r="B108" s="2">
@@ -39674,7 +39674,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CSU334768</t>
+          <t>TST334768</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -39992,7 +39992,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CSU335103</t>
+          <t>TST335103</t>
         </is>
       </c>
       <c r="B109" s="2">
@@ -40008,7 +40008,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CSU335103</t>
+          <t>TST335103</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -40336,7 +40336,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CSU335109</t>
+          <t>TST335109</t>
         </is>
       </c>
       <c r="B110" s="2">
@@ -40352,7 +40352,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CSU335109</t>
+          <t>TST335109</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -40675,7 +40675,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CSU292757</t>
+          <t>TST292757</t>
         </is>
       </c>
       <c r="B111" s="2">
@@ -40691,7 +40691,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CSU292757</t>
+          <t>TST292757</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -41059,7 +41059,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CSU335756</t>
+          <t>TST335756</t>
         </is>
       </c>
       <c r="B112" s="2">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CSU335756</t>
+          <t>TST335756</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -41423,7 +41423,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CSU335757</t>
+          <t>TST335757</t>
         </is>
       </c>
       <c r="B113" s="2">
@@ -41439,7 +41439,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CSU335757</t>
+          <t>TST335757</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -41797,7 +41797,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CSU335681</t>
+          <t>TST335681</t>
         </is>
       </c>
       <c r="B114" s="2">
@@ -41813,7 +41813,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CSU335681</t>
+          <t>TST335681</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -42131,7 +42131,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CSU335838</t>
+          <t>TST335838</t>
         </is>
       </c>
       <c r="B115" s="2">
@@ -42147,7 +42147,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CSU335838</t>
+          <t>TST335838</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -42467,7 +42467,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="B116" s="2">
@@ -42483,7 +42483,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -42851,7 +42851,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CSU335829</t>
+          <t>TST335829</t>
         </is>
       </c>
       <c r="B117" s="2">
@@ -42867,7 +42867,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CSU335829</t>
+          <t>TST335829</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -43202,7 +43202,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CSU335837</t>
+          <t>TST335837</t>
         </is>
       </c>
       <c r="B118" s="2">
@@ -43218,7 +43218,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CSU335837</t>
+          <t>TST335837</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -43551,7 +43551,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CSU335848</t>
+          <t>TST335848</t>
         </is>
       </c>
       <c r="B119" s="2">
@@ -43567,7 +43567,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CSI335848</t>
+          <t>TSTCSI335848</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -43900,7 +43900,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CSU335865</t>
+          <t>TST335865</t>
         </is>
       </c>
       <c r="B120" s="2">
@@ -43916,7 +43916,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CSU335865</t>
+          <t>TST335865</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -44234,7 +44234,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CSU335867</t>
+          <t>TST335867</t>
         </is>
       </c>
       <c r="B121" s="2">
@@ -44250,7 +44250,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CSU335867</t>
+          <t>TST335867</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -44568,7 +44568,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CSU335868</t>
+          <t>TST335868</t>
         </is>
       </c>
       <c r="B122" s="2">
@@ -44584,7 +44584,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CSU335868</t>
+          <t>TST335868</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -44907,7 +44907,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CSU335887</t>
+          <t>TST335887</t>
         </is>
       </c>
       <c r="B123" s="2">
@@ -44923,7 +44923,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CSU335887</t>
+          <t>TST335887</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -45261,7 +45261,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CSU318558</t>
+          <t>TST318558</t>
         </is>
       </c>
       <c r="B124" s="2">
@@ -45277,7 +45277,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CSU318558</t>
+          <t>TST318558</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -45637,7 +45637,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CSU336037</t>
+          <t>TST336037</t>
         </is>
       </c>
       <c r="B125" s="2">
@@ -45653,7 +45653,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CSU336037</t>
+          <t>TST336037</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -46517,7 +46517,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSU338698</t>
+          <t>TST338698</t>
         </is>
       </c>
       <c r="B2" s="2">
@@ -46533,7 +46533,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSU338698</t>
+          <t>TST338698</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -46926,7 +46926,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSU339186</t>
+          <t>TST339186</t>
         </is>
       </c>
       <c r="B3" s="2">
@@ -46942,7 +46942,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CSU339186</t>
+          <t>TST339186</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -47300,7 +47300,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CSU345316</t>
+          <t>TST345316</t>
         </is>
       </c>
       <c r="B4" s="2">
@@ -47316,7 +47316,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSU345316</t>
+          <t>TST345316</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -47651,7 +47651,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>350183</t>
+          <t>TST350183</t>
         </is>
       </c>
       <c r="B5" s="2">
@@ -47667,7 +47667,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>350183</t>
+          <t>TST350183</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -48030,7 +48030,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CSU341608</t>
+          <t>TST341608</t>
         </is>
       </c>
       <c r="B6" s="2">
@@ -48046,7 +48046,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSU341608</t>
+          <t>TST341608</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -48374,7 +48374,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="B7" s="2">
@@ -48390,7 +48390,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -48758,7 +48758,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>346786</t>
+          <t>TST346786</t>
         </is>
       </c>
       <c r="B8" s="2">
@@ -48774,7 +48774,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>346786</t>
+          <t>TST346786</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -49157,7 +49157,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CSU348049</t>
+          <t>TST348049</t>
         </is>
       </c>
       <c r="B9" s="2">
@@ -49173,7 +49173,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>348049</t>
+          <t>TST348049</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -49556,7 +49556,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CSU352774</t>
+          <t>TST352774</t>
         </is>
       </c>
       <c r="B10" s="2">
@@ -49572,7 +49572,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CSU352774</t>
+          <t>TST352774</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -49922,7 +49922,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSU349190</t>
+          <t>TST349190</t>
         </is>
       </c>
       <c r="B11" s="2">
@@ -49938,7 +49938,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CSU349190</t>
+          <t>TST349190</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -50306,7 +50306,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>246954</t>
+          <t>TST246954</t>
         </is>
       </c>
       <c r="B12" s="2">
@@ -50322,7 +50322,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>43407</t>
+          <t>TST43407</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -50687,7 +50687,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>353522</t>
+          <t>TST353522</t>
         </is>
       </c>
       <c r="B13" s="2">
@@ -50703,7 +50703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>353522</t>
+          <t>TST353522</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -51071,7 +51071,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>354896</t>
+          <t>TST354896</t>
         </is>
       </c>
       <c r="B14" s="2">
@@ -51087,7 +51087,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>354896</t>
+          <t>TST354896</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -51450,7 +51450,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CSU345134</t>
+          <t>TST345134</t>
         </is>
       </c>
       <c r="B15" s="2">
@@ -51466,7 +51466,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CSU345134</t>
+          <t>TST345134</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -51814,7 +51814,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CSU332557</t>
+          <t>TST332557</t>
         </is>
       </c>
       <c r="B16" s="2">
@@ -51830,7 +51830,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CSU332557</t>
+          <t>TST332557</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -52158,7 +52158,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSU332749</t>
+          <t>TST332749</t>
         </is>
       </c>
       <c r="B17" s="2">
@@ -52174,7 +52174,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CSU332749</t>
+          <t>TST332749</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -52527,7 +52527,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CSU332914</t>
+          <t>TST332914</t>
         </is>
       </c>
       <c r="B18" s="2">
@@ -52543,7 +52543,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CSU332914</t>
+          <t>TST332914</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -52891,7 +52891,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSU333056</t>
+          <t>TST333056</t>
         </is>
       </c>
       <c r="B19" s="2">
@@ -52907,7 +52907,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CSU333056</t>
+          <t>TST333056</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -53235,7 +53235,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSU333502</t>
+          <t>TST333502</t>
         </is>
       </c>
       <c r="B20" s="2">
@@ -53251,7 +53251,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CSU333502</t>
+          <t>TST333502</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -53584,7 +53584,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSU334193</t>
+          <t>TST334193</t>
         </is>
       </c>
       <c r="B21" s="2">
@@ -53600,7 +53600,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CSU334193</t>
+          <t>TST334193</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -53973,7 +53973,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSU334474</t>
+          <t>TST334474</t>
         </is>
       </c>
       <c r="B22" s="2">
@@ -53989,7 +53989,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CSU334474</t>
+          <t>TST334474</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -54312,7 +54312,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSU334616</t>
+          <t>TST334616</t>
         </is>
       </c>
       <c r="B23" s="2">
@@ -54328,7 +54328,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CSU334616</t>
+          <t>TST334616</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -54656,7 +54656,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSU334766</t>
+          <t>TST334766</t>
         </is>
       </c>
       <c r="B24" s="2">
@@ -54672,7 +54672,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CSU334766</t>
+          <t>TST334766</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -55015,7 +55015,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CSU335103</t>
+          <t>TST335103</t>
         </is>
       </c>
       <c r="B25" s="2">
@@ -55031,7 +55031,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CSU335103</t>
+          <t>TST335103</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -55359,7 +55359,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CSU292757</t>
+          <t>TST292757</t>
         </is>
       </c>
       <c r="B26" s="2">
@@ -55375,7 +55375,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CSU292757</t>
+          <t>TST292757</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -55743,7 +55743,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CSU335681</t>
+          <t>TST335681</t>
         </is>
       </c>
       <c r="B27" s="2">
@@ -55759,7 +55759,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CSU335681</t>
+          <t>TST335681</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -56077,7 +56077,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="B28" s="2">
@@ -56093,7 +56093,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -56992,7 +56992,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSU331933</t>
+          <t>TST331933</t>
         </is>
       </c>
       <c r="B2" s="2">
@@ -57008,7 +57008,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSU331933</t>
+          <t>TST331933</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -57356,7 +57356,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSU338698</t>
+          <t>TST338698</t>
         </is>
       </c>
       <c r="B3" s="2">
@@ -57372,7 +57372,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CSU338698</t>
+          <t>TST338698</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -57765,7 +57765,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CSU338729</t>
+          <t>TST338729</t>
         </is>
       </c>
       <c r="B4" s="2">
@@ -57781,7 +57781,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSU338729</t>
+          <t>TST338729</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -58129,7 +58129,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CSU346045</t>
+          <t>TST346045</t>
         </is>
       </c>
       <c r="B5" s="2">
@@ -58145,7 +58145,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSU346045</t>
+          <t>TST346045</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -58503,7 +58503,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="B6" s="2">
@@ -58519,7 +58519,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -58887,7 +58887,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CSU338961</t>
+          <t>TST338961</t>
         </is>
       </c>
       <c r="B7" s="2">
@@ -58903,7 +58903,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSU338961</t>
+          <t>TST338961</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -59256,7 +59256,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CSU340306</t>
+          <t>TST340306</t>
         </is>
       </c>
       <c r="B8" s="2">
@@ -59272,7 +59272,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CSU340306</t>
+          <t>TST340306</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -59635,7 +59635,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CSU340641</t>
+          <t>TST340641</t>
         </is>
       </c>
       <c r="B9" s="2">
@@ -59651,7 +59651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CSU340641</t>
+          <t>TST340641</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -60019,7 +60019,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>346786</t>
+          <t>TST346786</t>
         </is>
       </c>
       <c r="B10" s="2">
@@ -60035,7 +60035,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>346786</t>
+          <t>TST346786</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -60418,7 +60418,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSU348049</t>
+          <t>TST348049</t>
         </is>
       </c>
       <c r="B11" s="2">
@@ -60434,7 +60434,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>348049</t>
+          <t>TST348049</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -60817,7 +60817,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSU350865</t>
+          <t>TST350865</t>
         </is>
       </c>
       <c r="B12" s="2">
@@ -60833,7 +60833,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CSU350865</t>
+          <t>TST350865</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -61181,7 +61181,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSU332328</t>
+          <t>TST332328</t>
         </is>
       </c>
       <c r="B13" s="2">
@@ -61197,7 +61197,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CSU332328</t>
+          <t>TST332328</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -61570,7 +61570,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CSU331933</t>
+          <t>TST331933</t>
         </is>
       </c>
       <c r="B14" s="2">
@@ -61586,7 +61586,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CSU331933</t>
+          <t>TST331933</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -61934,7 +61934,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CSU334193</t>
+          <t>TST334193</t>
         </is>
       </c>
       <c r="B15" s="2">
@@ -61950,7 +61950,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CSU334193</t>
+          <t>TST334193</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -62323,7 +62323,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CSU292757</t>
+          <t>TST292757</t>
         </is>
       </c>
       <c r="B16" s="2">
@@ -62339,7 +62339,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CSU292757</t>
+          <t>TST292757</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -62707,7 +62707,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="B17" s="2">
@@ -62723,7 +62723,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -63091,7 +63091,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CSU318558</t>
+          <t>TST318558</t>
         </is>
       </c>
       <c r="B18" s="2">
@@ -63107,7 +63107,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CSU318558</t>
+          <t>TST318558</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -63998,7 +63998,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSU341404</t>
+          <t>TST341404</t>
         </is>
       </c>
       <c r="B2" s="2">
@@ -64014,7 +64014,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSU341404</t>
+          <t>TST341404</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -64372,7 +64372,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSU345316</t>
+          <t>TST345316</t>
         </is>
       </c>
       <c r="B3" s="2">
@@ -64388,7 +64388,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CSU345316</t>
+          <t>TST345316</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -64723,7 +64723,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CSU350651</t>
+          <t>TST350651</t>
         </is>
       </c>
       <c r="B4" s="2">
@@ -64739,7 +64739,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSU350651</t>
+          <t>TST350651</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -65074,7 +65074,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CSU340306</t>
+          <t>TST340306</t>
         </is>
       </c>
       <c r="B5" s="2">
@@ -65090,7 +65090,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSU340306</t>
+          <t>TST340306</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -65453,7 +65453,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CSU331743</t>
+          <t>TST331743</t>
         </is>
       </c>
       <c r="B6" s="2">
@@ -65469,7 +65469,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSU331743</t>
+          <t>TST331743</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -65827,7 +65827,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CSU348049</t>
+          <t>TST348049</t>
         </is>
       </c>
       <c r="B7" s="2">
@@ -65843,7 +65843,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>348049</t>
+          <t>TST348049</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -66226,7 +66226,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>349315</t>
+          <t>TST349315</t>
         </is>
       </c>
       <c r="B8" s="2">
@@ -66242,7 +66242,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>349315</t>
+          <t>TST349315</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -66600,7 +66600,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>349548</t>
+          <t>TST349548</t>
         </is>
       </c>
       <c r="B9" s="2">
@@ -66616,7 +66616,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>349548</t>
+          <t>TST349548</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -66974,7 +66974,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CSU350865</t>
+          <t>TST350865</t>
         </is>
       </c>
       <c r="B10" s="2">
@@ -66990,7 +66990,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CSU350865</t>
+          <t>TST350865</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -67338,7 +67338,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSU323835</t>
+          <t>TST323835</t>
         </is>
       </c>
       <c r="B11" s="2">
@@ -67354,7 +67354,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CSU323835</t>
+          <t>TST323835</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -67707,7 +67707,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSU292757</t>
+          <t>TST292757</t>
         </is>
       </c>
       <c r="B12" s="2">
@@ -67723,7 +67723,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CSU292757</t>
+          <t>TST292757</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -68091,7 +68091,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSU318558</t>
+          <t>TST318558</t>
         </is>
       </c>
       <c r="B13" s="2">
@@ -68107,7 +68107,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CSU318558</t>
+          <t>TST318558</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
